--- a/Test/MultiPSO/Explore150Exploit200/ALLCONError_25.xlsx
+++ b/Test/MultiPSO/Explore150Exploit200/ALLCONError_25.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.03971336825020767</v>
+        <v>0.02170946865482072</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0172229462614384</v>
+        <v>0.00997542353663693</v>
       </c>
       <c r="C1" t="n">
-        <v>0.02764695010711686</v>
+        <v>0.05915707977952807</v>
       </c>
       <c r="D1" t="n">
-        <v>0.01995735437505072</v>
+        <v>0.0167369345722405</v>
       </c>
       <c r="E1" t="n">
-        <v>0.03828761610744981</v>
+        <v>0.02637705638573451</v>
       </c>
       <c r="F1" t="n">
-        <v>0.03308179932382001</v>
+        <v>0.05786303838058671</v>
       </c>
       <c r="G1" t="n">
-        <v>0.07299417848790582</v>
+        <v>0.02457587345466709</v>
       </c>
       <c r="H1" t="n">
-        <v>0.01800873192331769</v>
+        <v>0.005870659729933668</v>
       </c>
       <c r="I1" t="n">
-        <v>0.04385992080062338</v>
+        <v>0.02178807005708388</v>
       </c>
       <c r="J1" t="n">
-        <v>0.06037605249441581</v>
+        <v>0.05704068658200218</v>
       </c>
     </row>
   </sheetData>
